--- a/fuentes/contenidos/grado09/guion12/EsqueletoGuion_CN_09_12_CO.xlsx
+++ b/fuentes/contenidos/grado09/guion12/EsqueletoGuion_CN_09_12_CO.xlsx
@@ -13,12 +13,12 @@
     <sheet name="CUADERNO DEL PROFESOR" sheetId="4" r:id="rId4"/>
     <sheet name="CUADERNO DE ESTUDIO" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" iterateCount="2" iterateDelta="10"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="105">
   <si>
     <t>TITULO</t>
   </si>
@@ -95,39 +95,39 @@
     <t>Ciencias Naturales</t>
   </si>
   <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>Recursos F</t>
+  </si>
+  <si>
+    <t>Recurso F4-01</t>
+  </si>
+  <si>
+    <t>RF_01_01_CO</t>
+  </si>
+  <si>
+    <t>4º ESO</t>
+  </si>
+  <si>
+    <t>FQ</t>
+  </si>
+  <si>
+    <t>La fuerza</t>
+  </si>
+  <si>
+    <t>Diferencia entre las magnitudes escalares y vectoriales</t>
+  </si>
+  <si>
+    <t>FQ_10_02</t>
+  </si>
+  <si>
+    <t>Entiende la composición de fuerzas concurrentes</t>
+  </si>
+  <si>
     <t>RM</t>
   </si>
   <si>
-    <t>Recursos M aleatorios y diaporama F1</t>
-  </si>
-  <si>
-    <t>Diaporama F1-01</t>
-  </si>
-  <si>
-    <t>RM_01_02_CO</t>
-  </si>
-  <si>
-    <t>4º ESO</t>
-  </si>
-  <si>
-    <t>FQ</t>
-  </si>
-  <si>
-    <t>La fuerza</t>
-  </si>
-  <si>
-    <t>¿Qué sabes sobre las magnitudes vectoriales?</t>
-  </si>
-  <si>
-    <t>FQ_10_02</t>
-  </si>
-  <si>
-    <t>Diferencia entre las magnitudes escalares y vectoriales</t>
-  </si>
-  <si>
-    <t>Entiende la composición de fuerzas concurrentes</t>
-  </si>
-  <si>
     <t>Recursos M</t>
   </si>
   <si>
@@ -137,141 +137,87 @@
     <t>RM_01_01_CO</t>
   </si>
   <si>
+    <t>Recurso M101A-01</t>
+  </si>
+  <si>
+    <t>Recurso F7B-01</t>
+  </si>
+  <si>
+    <t>La dinámica</t>
+  </si>
+  <si>
+    <t>Calcula el peso y la masa</t>
+  </si>
+  <si>
+    <t>FQ_10_03</t>
+  </si>
+  <si>
+    <t>Recurso M1A-01</t>
+  </si>
+  <si>
+    <t>Recurso M101A-02</t>
+  </si>
+  <si>
+    <t>Recurso F4-02</t>
+  </si>
+  <si>
+    <t>Recurso M2A-01</t>
+  </si>
+  <si>
+    <t>Recurso F4-03</t>
+  </si>
+  <si>
     <t>Recurso M5A-02</t>
   </si>
   <si>
-    <t>Recurso M101A-01</t>
-  </si>
-  <si>
-    <t>RF</t>
-  </si>
-  <si>
-    <t>Recursos F</t>
-  </si>
-  <si>
-    <t>Recurso F7B-01</t>
-  </si>
-  <si>
-    <t>RF_01_01_CO</t>
-  </si>
-  <si>
-    <t>La dinámica</t>
-  </si>
-  <si>
-    <t>Calcula el peso y la masa</t>
-  </si>
-  <si>
-    <t>FQ_10_03</t>
-  </si>
-  <si>
-    <t>Resuelve un crucigrama sobre la dinámica</t>
-  </si>
-  <si>
-    <t>Recurso F4-01</t>
-  </si>
-  <si>
-    <t>Recurso M1A-01</t>
-  </si>
-  <si>
-    <t>Recurso M101A-02</t>
-  </si>
-  <si>
-    <t>Recurso F4-02</t>
-  </si>
-  <si>
-    <t>Recurso M2A-01</t>
-  </si>
-  <si>
-    <t>Recurso F4-03</t>
-  </si>
-  <si>
-    <t>Diaporama F1-02</t>
+    <t>Aplica las leyes de Newton</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Las leyes de Newton</t>
+  </si>
+  <si>
+    <t>2º ESO</t>
+  </si>
+  <si>
+    <t>TC</t>
+  </si>
+  <si>
+    <t>Las máquinas simples</t>
+  </si>
+  <si>
+    <t>¿Cómo nos ayudan las máquinas?</t>
+  </si>
+  <si>
+    <t>TC_08_11</t>
+  </si>
+  <si>
+    <t>3º ESO</t>
+  </si>
+  <si>
+    <t>Las máquinas térmicas</t>
+  </si>
+  <si>
+    <t>¿Qué sabes de la máquina de vapor alternativa?</t>
+  </si>
+  <si>
+    <t>TC_09_15</t>
+  </si>
+  <si>
+    <t>Entiende la ley de la palanca</t>
+  </si>
+  <si>
+    <t>Las poleas y los polipastos</t>
+  </si>
+  <si>
+    <t>Recurso M2A-02</t>
+  </si>
+  <si>
+    <t>Evaluación</t>
   </si>
   <si>
     <t>Recurso M101A-03</t>
   </si>
   <si>
-    <t>Recurso M2C-01</t>
-  </si>
-  <si>
-    <t>Recurso M4A-01</t>
-  </si>
-  <si>
-    <t>2º ESO</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>La fuerza y la presión</t>
-  </si>
-  <si>
-    <t>La fuerza centrípeta y centrífuga</t>
-  </si>
-  <si>
-    <t>CN_08_11</t>
-  </si>
-  <si>
-    <t>Aplica las leyes de Newton</t>
-  </si>
-  <si>
-    <t>¿Qué sabes sobre las leyes de la dinámica?</t>
-  </si>
-  <si>
-    <t>Refuerza tu aprendizaje: Las leyes de Newton</t>
-  </si>
-  <si>
-    <t>Recurso F7B-02</t>
-  </si>
-  <si>
-    <t>TC</t>
-  </si>
-  <si>
-    <t>Las máquinas simples</t>
-  </si>
-  <si>
-    <t>¿Cómo nos ayudan las máquinas?</t>
-  </si>
-  <si>
-    <t>TC_08_11</t>
-  </si>
-  <si>
-    <t>3º ESO</t>
-  </si>
-  <si>
-    <t>Las máquinas térmicas</t>
-  </si>
-  <si>
-    <t>¿Qué sabes de la máquina de vapor alternativa?</t>
-  </si>
-  <si>
-    <t>TC_09_15</t>
-  </si>
-  <si>
-    <t>Entiende la ley de la palanca</t>
-  </si>
-  <si>
-    <t>Identifica tipos de palanca</t>
-  </si>
-  <si>
-    <t>Las poleas y los polipastos</t>
-  </si>
-  <si>
-    <t>Descubre cómo funcionan las poleas</t>
-  </si>
-  <si>
-    <t>Recurso M2A-02</t>
-  </si>
-  <si>
-    <t>Recurso M5A-03</t>
-  </si>
-  <si>
-    <t>Evaluación</t>
-  </si>
-  <si>
-    <t>Recurso M101A-04</t>
-  </si>
-  <si>
     <t>3C</t>
   </si>
   <si>
@@ -314,10 +260,7 @@
     <t>si</t>
   </si>
   <si>
-    <t>Conceptos fundamentales</t>
-  </si>
-  <si>
-    <t>Isaac Newton</t>
+    <t>Los conceptos fundamentales de fuerza</t>
   </si>
   <si>
     <t>Texto</t>
@@ -353,9 +296,6 @@
     <t>La aceleración, la fuerza y la masa</t>
   </si>
   <si>
-    <t>fuerza centrípeta</t>
-  </si>
-  <si>
     <t>Fuerza centrípeta</t>
   </si>
   <si>
@@ -366,15 +306,6 @@
   </si>
   <si>
     <t>Tercera ley de Newton o ley de la acción y la reacción</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La fuerza normal </t>
-  </si>
-  <si>
-    <t>La fuerza de rozamiento</t>
-  </si>
-  <si>
-    <t>La fuerza elástica</t>
   </si>
   <si>
     <t>La fuerza centrífuga</t>
@@ -920,7 +851,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -930,7 +861,7 @@
   <cols>
     <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.140625" bestFit="1" customWidth="1"/>
@@ -1023,20 +954,20 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>29</v>
+      <c r="A5">
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F5">
         <v>4</v>
@@ -1047,13 +978,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
         <v>38</v>
@@ -1070,33 +1001,33 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>6</v>
+      <c r="A8" t="s">
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F8">
         <v>7</v>
@@ -1107,56 +1038,56 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>29</v>
+      <c r="A10">
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
         <v>45</v>
       </c>
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F10">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>29</v>
+      <c r="A11">
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -1167,16 +1098,16 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F12">
         <v>11</v>
@@ -1190,13 +1121,13 @@
         <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="F13">
         <v>12</v>
@@ -1207,13 +1138,13 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
         <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
         <v>38</v>
@@ -1223,40 +1154,40 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>6</v>
+      <c r="A15" t="s">
+        <v>29</v>
       </c>
       <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
         <v>41</v>
       </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>6</v>
+      <c r="A16" t="s">
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F16">
         <v>15</v>
@@ -1267,116 +1198,116 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="F17">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>6</v>
+      <c r="A18" t="s">
+        <v>52</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="D18" t="s">
         <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
       <c r="F18">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>6</v>
+      <c r="A19" t="s">
+        <v>57</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="F19">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>6</v>
+      <c r="A20" t="s">
+        <v>52</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="D20" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="F20">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" t="s">
+        <v>62</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>6</v>
       </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s">
         <v>36</v>
       </c>
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D22" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" t="s">
         <v>38</v>
-      </c>
-      <c r="F21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" t="s">
-        <v>63</v>
       </c>
       <c r="F22">
         <v>21</v>
@@ -1384,39 +1315,39 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="D23" t="s">
         <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F23">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>29</v>
+      <c r="A24">
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
         <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F24">
         <v>23</v>
@@ -1424,39 +1355,39 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="F25">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>6</v>
+      <c r="A26" t="s">
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F26">
         <v>25</v>
@@ -1464,262 +1395,22 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="F27">
         <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C29" t="s">
-        <v>69</v>
-      </c>
-      <c r="D29" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" t="s">
-        <v>71</v>
-      </c>
-      <c r="F29">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" t="s">
-        <v>69</v>
-      </c>
-      <c r="D30" t="s">
-        <v>77</v>
-      </c>
-      <c r="E30" t="s">
-        <v>71</v>
-      </c>
-      <c r="F30">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>59</v>
-      </c>
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" t="s">
-        <v>78</v>
-      </c>
-      <c r="E31" t="s">
-        <v>71</v>
-      </c>
-      <c r="F31">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" t="s">
-        <v>47</v>
-      </c>
-      <c r="F32">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>6</v>
-      </c>
-      <c r="B33" t="s">
-        <v>25</v>
-      </c>
-      <c r="C33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D33" t="s">
-        <v>80</v>
-      </c>
-      <c r="E33" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>6</v>
-      </c>
-      <c r="B34" t="s">
-        <v>25</v>
-      </c>
-      <c r="C34" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" t="s">
-        <v>81</v>
-      </c>
-      <c r="E34" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>59</v>
-      </c>
-      <c r="B35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" t="s">
-        <v>82</v>
-      </c>
-      <c r="E35" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>6</v>
-      </c>
-      <c r="B36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D36" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>84</v>
-      </c>
-      <c r="B37" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" t="s">
-        <v>87</v>
-      </c>
-      <c r="E37" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>84</v>
-      </c>
-      <c r="B38" t="s">
-        <v>85</v>
-      </c>
-      <c r="C38" t="s">
-        <v>86</v>
-      </c>
-      <c r="D38" t="s">
-        <v>89</v>
-      </c>
-      <c r="E38" t="s">
-        <v>88</v>
-      </c>
-      <c r="F38">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" t="s">
-        <v>90</v>
-      </c>
-      <c r="E39" t="s">
-        <v>47</v>
-      </c>
-      <c r="F39">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1761,44 +1452,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C2">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C3">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="C4">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1812,7 +1503,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
@@ -1844,7 +1535,7 @@
         <v>27</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1855,7 +1546,7 @@
         <v>32</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -1866,7 +1557,7 @@
         <v>34</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1874,10 +1565,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1885,10 +1576,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1896,10 +1587,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1907,10 +1598,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1918,10 +1609,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -1929,10 +1620,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -1940,10 +1631,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -1951,10 +1642,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -1962,10 +1653,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -1973,10 +1664,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -1984,10 +1675,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -1995,10 +1686,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2006,10 +1697,10 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2020,7 +1711,7 @@
         <v>55</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2028,10 +1719,10 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2039,10 +1730,10 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2050,10 +1741,10 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2061,10 +1752,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2075,7 +1766,7 @@
         <v>64</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2086,7 +1777,7 @@
         <v>65</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2094,10 +1785,10 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2105,10 +1796,10 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2116,10 +1807,10 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2127,10 +1818,10 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>74</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2141,7 +1832,7 @@
         <v>76</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -2149,142 +1840,10 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>82</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>87</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>89</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>90</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>94</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2295,7 +1854,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I190"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
@@ -2308,7 +1867,7 @@
     <col min="3" max="3" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="48.7109375" style="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="51.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.140625" style="10" bestFit="1" customWidth="1"/>
@@ -2350,13 +1909,10 @@
         <v>20</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>100</v>
+        <v>80</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -2364,13 +1920,10 @@
         <v>20</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>101</v>
+        <v>80</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -2378,13 +1931,10 @@
         <v>20</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>102</v>
+        <v>80</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2392,13 +1942,10 @@
         <v>20</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>103</v>
+        <v>80</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2406,19 +1953,16 @@
         <v>20</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>104</v>
+        <v>80</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="H6" s="8" t="s">
         <v>27</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2426,13 +1970,13 @@
         <v>20</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2440,13 +1984,13 @@
         <v>20</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2454,13 +1998,13 @@
         <v>20</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2468,13 +2012,13 @@
         <v>20</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2482,19 +2026,19 @@
         <v>20</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>32</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2502,13 +2046,13 @@
         <v>20</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2516,13 +2060,13 @@
         <v>20</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2530,13 +2074,13 @@
         <v>20</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2544,13 +2088,13 @@
         <v>20</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2558,19 +2102,19 @@
         <v>20</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>34</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -2578,13 +2122,13 @@
         <v>20</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -2592,13 +2136,13 @@
         <v>20</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -2606,13 +2150,13 @@
         <v>20</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -2620,13 +2164,13 @@
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -2634,19 +2178,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -2654,13 +2198,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -2668,13 +2212,13 @@
         <v>20</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -2682,13 +2226,13 @@
         <v>20</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -2696,13 +2240,13 @@
         <v>20</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -2710,19 +2254,19 @@
         <v>20</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -2730,13 +2274,10 @@
         <v>20</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
@@ -2744,13 +2285,10 @@
         <v>20</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>101</v>
+        <v>90</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -2758,13 +2296,10 @@
         <v>20</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>102</v>
+        <v>90</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -2772,13 +2307,10 @@
         <v>20</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>103</v>
+        <v>90</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -2786,13 +2318,16 @@
         <v>20</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -2800,13 +2335,13 @@
         <v>20</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -2814,13 +2349,13 @@
         <v>20</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -2828,13 +2363,13 @@
         <v>20</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -2842,19 +2377,13 @@
         <v>20</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="I35" s="10" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -2862,10 +2391,19 @@
         <v>20</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>100</v>
+        <v>90</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -2873,10 +2411,13 @@
         <v>20</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>101</v>
+        <v>90</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -2884,10 +2425,13 @@
         <v>20</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>102</v>
+        <v>90</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -2895,10 +2439,13 @@
         <v>20</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="9" t="s">
-        <v>103</v>
+        <v>90</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -2906,16 +2453,13 @@
         <v>20</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="C40" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H40" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>97</v>
+        <v>90</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -2923,13 +2467,19 @@
         <v>20</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
+      </c>
+      <c r="H41" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -2937,13 +2487,13 @@
         <v>20</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="E42" s="9" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -2951,13 +2501,13 @@
         <v>20</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="E43" s="9" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -2965,13 +2515,13 @@
         <v>20</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="E44" s="9" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -2979,19 +2529,13 @@
         <v>20</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H45" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I45" s="10" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -2999,13 +2543,19 @@
         <v>20</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
+      </c>
+      <c r="H46" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -3013,13 +2563,13 @@
         <v>20</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -3027,13 +2577,13 @@
         <v>20</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -3041,13 +2591,13 @@
         <v>20</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -3055,19 +2605,13 @@
         <v>20</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H50" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I50" s="10" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -3075,13 +2619,19 @@
         <v>20</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>100</v>
+        <v>85</v>
+      </c>
+      <c r="H51" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -3089,13 +2639,13 @@
         <v>20</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -3103,13 +2653,13 @@
         <v>20</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -3117,13 +2667,13 @@
         <v>20</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -3131,19 +2681,13 @@
         <v>20</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H55" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="I55" s="10" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -3151,13 +2695,19 @@
         <v>20</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>100</v>
+        <v>87</v>
+      </c>
+      <c r="H56" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -3165,13 +2715,13 @@
         <v>20</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -3179,13 +2729,13 @@
         <v>20</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D58" s="9" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -3193,13 +2743,13 @@
         <v>20</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D59" s="9" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -3207,19 +2757,13 @@
         <v>20</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D60" s="9" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="E60" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H60" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I60" s="10" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -3227,13 +2771,19 @@
         <v>20</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
       <c r="E61" s="9" t="s">
-        <v>100</v>
+        <v>85</v>
+      </c>
+      <c r="H61" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -3241,13 +2791,16 @@
         <v>20</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G62" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -3255,13 +2808,16 @@
         <v>20</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D63" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E63" s="9" t="s">
-        <v>102</v>
+        <v>95</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G63" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -3269,13 +2825,16 @@
         <v>20</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D64" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E64" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G64" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -3283,19 +2842,16 @@
         <v>20</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D65" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E65" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H65" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I65" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -3303,13 +2859,22 @@
         <v>20</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E66" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H66" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="I66" s="10" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -3317,13 +2882,16 @@
         <v>20</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E67" s="9" t="s">
-        <v>101</v>
+        <v>95</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -3331,13 +2899,16 @@
         <v>20</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E68" s="9" t="s">
-        <v>102</v>
+        <v>95</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -3345,13 +2916,16 @@
         <v>20</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E69" s="9" t="s">
-        <v>103</v>
+        <v>95</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -3359,19 +2933,16 @@
         <v>20</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="E70" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H70" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="I70" s="10" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -3379,13 +2950,13 @@
         <v>20</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="E71" s="9" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -3393,13 +2964,13 @@
         <v>20</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="E72" s="9" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -3407,13 +2978,13 @@
         <v>20</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="E73" s="9" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -3421,13 +2992,13 @@
         <v>20</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D74" s="9" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="E74" s="9" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -3435,19 +3006,19 @@
         <v>20</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="D75" s="9" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="E75" s="9" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I75" s="10" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -3455,13 +3026,13 @@
         <v>20</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D76" s="9" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="E76" s="9" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -3469,13 +3040,13 @@
         <v>20</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D77" s="9" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="E77" s="9" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -3483,13 +3054,13 @@
         <v>20</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="E78" s="9" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -3497,13 +3068,13 @@
         <v>20</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D79" s="9" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="E79" s="9" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -3511,19 +3082,19 @@
         <v>20</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D80" s="9" t="s">
-        <v>115</v>
+        <v>54</v>
       </c>
       <c r="E80" s="9" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="H80" s="8" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -3531,16 +3102,13 @@
         <v>20</v>
       </c>
       <c r="B81" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>100</v>
+        <v>54</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -3548,16 +3116,13 @@
         <v>20</v>
       </c>
       <c r="B82" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D82" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G82" s="9" t="s">
-        <v>101</v>
+        <v>54</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -3565,16 +3130,13 @@
         <v>20</v>
       </c>
       <c r="B83" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D83" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G83" s="9" t="s">
-        <v>102</v>
+        <v>54</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -3582,16 +3144,13 @@
         <v>20</v>
       </c>
       <c r="B84" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G84" s="9" t="s">
-        <v>103</v>
+        <v>54</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -3599,22 +3158,19 @@
         <v>20</v>
       </c>
       <c r="B85" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G85" s="9" t="s">
-        <v>104</v>
+        <v>54</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="H85" s="8" t="s">
         <v>55</v>
       </c>
       <c r="I85" s="10" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -3622,16 +3178,13 @@
         <v>20</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F86" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -3639,16 +3192,13 @@
         <v>20</v>
       </c>
       <c r="B87" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F87" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G87" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="E87" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -3656,16 +3206,13 @@
         <v>20</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F88" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>102</v>
+        <v>97</v>
+      </c>
+      <c r="E88" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -3673,16 +3220,13 @@
         <v>20</v>
       </c>
       <c r="B89" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D89" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F89" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G89" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -3690,22 +3234,19 @@
         <v>20</v>
       </c>
       <c r="B90" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D90" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F90" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="G90" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
+      </c>
+      <c r="E90" s="9" t="s">
+        <v>85</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -3713,16 +3254,13 @@
         <v>20</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D91" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F91" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="G91" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -3730,16 +3268,13 @@
         <v>20</v>
       </c>
       <c r="B92" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D92" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F92" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="E92" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -3747,16 +3282,13 @@
         <v>20</v>
       </c>
       <c r="B93" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D93" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F93" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="G93" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="E93" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3764,16 +3296,13 @@
         <v>20</v>
       </c>
       <c r="B94" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D94" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F94" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="G94" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -3781,22 +3310,19 @@
         <v>20</v>
       </c>
       <c r="B95" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F95" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="G95" s="9" t="s">
-        <v>106</v>
+        <v>98</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="H95" s="8" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -3804,16 +3330,16 @@
         <v>20</v>
       </c>
       <c r="B96" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F96" s="9" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>100</v>
+        <v>81</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
@@ -3821,16 +3347,16 @@
         <v>20</v>
       </c>
       <c r="B97" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
@@ -3838,16 +3364,16 @@
         <v>20</v>
       </c>
       <c r="B98" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D98" s="9" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F98" s="9" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
@@ -3855,16 +3381,16 @@
         <v>20</v>
       </c>
       <c r="B99" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -3872,22 +3398,22 @@
         <v>20</v>
       </c>
       <c r="B100" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D100" s="9" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="H100" s="8" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="I100" s="10" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -3895,16 +3421,13 @@
         <v>20</v>
       </c>
       <c r="B101" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D101" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F101" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G101" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -3912,16 +3435,13 @@
         <v>20</v>
       </c>
       <c r="B102" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D102" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F102" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G102" s="9" t="s">
         <v>101</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -3929,16 +3449,13 @@
         <v>20</v>
       </c>
       <c r="B103" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D103" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F103" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -3946,16 +3463,13 @@
         <v>20</v>
       </c>
       <c r="B104" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D104" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F104" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G104" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -3963,22 +3477,19 @@
         <v>20</v>
       </c>
       <c r="B105" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D105" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F105" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G105" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I105" s="10" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -3986,16 +3497,13 @@
         <v>20</v>
       </c>
       <c r="B106" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D106" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F106" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G106" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
@@ -4003,16 +3511,13 @@
         <v>20</v>
       </c>
       <c r="B107" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D107" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F107" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G107" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -4020,16 +3525,13 @@
         <v>20</v>
       </c>
       <c r="B108" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D108" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F108" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G108" s="9" t="s">
         <v>102</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -4037,16 +3539,13 @@
         <v>20</v>
       </c>
       <c r="B109" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D109" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F109" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -4054,16 +3553,13 @@
         <v>20</v>
       </c>
       <c r="B110" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F110" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G110" s="9" t="s">
-        <v>100</v>
+        <v>89</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
@@ -4071,16 +3567,13 @@
         <v>20</v>
       </c>
       <c r="B111" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D111" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F111" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G111" s="9" t="s">
-        <v>101</v>
+        <v>89</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
@@ -4088,16 +3581,13 @@
         <v>20</v>
       </c>
       <c r="B112" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D112" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F112" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G112" s="9" t="s">
-        <v>102</v>
+        <v>89</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -4105,16 +3595,13 @@
         <v>20</v>
       </c>
       <c r="B113" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D113" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F113" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G113" s="9" t="s">
-        <v>103</v>
+        <v>89</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
@@ -4122,22 +3609,19 @@
         <v>20</v>
       </c>
       <c r="B114" s="9" t="s">
-        <v>113</v>
+        <v>54</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="F114" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="G114" s="9" t="s">
-        <v>106</v>
+        <v>89</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="H114" s="8" t="s">
         <v>65</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
@@ -4145,13 +3629,10 @@
         <v>20</v>
       </c>
       <c r="B115" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D115" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E115" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -4159,13 +3640,10 @@
         <v>20</v>
       </c>
       <c r="B116" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D116" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E116" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -4173,13 +3651,10 @@
         <v>20</v>
       </c>
       <c r="B117" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D117" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E117" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -4187,13 +3662,10 @@
         <v>20</v>
       </c>
       <c r="B118" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E118" s="9" t="s">
         <v>103</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -4201,19 +3673,16 @@
         <v>20</v>
       </c>
       <c r="B119" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D119" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E119" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="H119" s="8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I119" s="10" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -4221,13 +3690,10 @@
         <v>20</v>
       </c>
       <c r="B120" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D120" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -4235,13 +3701,10 @@
         <v>20</v>
       </c>
       <c r="B121" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D121" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E121" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -4249,13 +3712,10 @@
         <v>20</v>
       </c>
       <c r="B122" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D122" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E122" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="C122" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -4263,13 +3723,10 @@
         <v>20</v>
       </c>
       <c r="B123" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D123" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E123" s="9" t="s">
         <v>103</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -4277,19 +3734,16 @@
         <v>20</v>
       </c>
       <c r="B124" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D124" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E124" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="H124" s="8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I124" s="10" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -4297,13 +3751,10 @@
         <v>20</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D125" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E125" s="9" t="s">
-        <v>100</v>
+        <v>103</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -4311,13 +3762,10 @@
         <v>20</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D126" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E126" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -4325,13 +3773,10 @@
         <v>20</v>
       </c>
       <c r="B127" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D127" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E127" s="9" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="C127" s="9" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -4339,13 +3784,10 @@
         <v>20</v>
       </c>
       <c r="B128" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D128" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E128" s="9" t="s">
         <v>103</v>
+      </c>
+      <c r="C128" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -4353,19 +3795,16 @@
         <v>20</v>
       </c>
       <c r="B129" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D129" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="E129" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="I129" s="10" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -4373,13 +3812,13 @@
         <v>20</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D130" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E130" s="9" t="s">
-        <v>100</v>
+        <v>104</v>
+      </c>
+      <c r="C130" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="I130" s="10" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -4387,893 +3826,16 @@
         <v>20</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D131" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E131" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B132" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D132" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E132" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B133" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D133" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E133" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A134" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D134" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="E134" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="H134" s="8" t="s">
+      <c r="C131" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="I131" s="10" t="s">
         <v>74</v>
-      </c>
-      <c r="I134" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B135" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D135" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E135" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B136" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D136" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E136" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B137" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D137" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E137" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B138" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D138" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E138" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D139" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E139" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H139" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="I139" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D140" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E140" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B141" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D141" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E141" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D142" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E142" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B143" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D143" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E143" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B144" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D144" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="E144" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H144" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I144" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B145" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D145" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F145" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G145" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A146" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D146" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F146" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G146" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B147" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D147" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F147" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G147" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B148" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D148" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F148" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G148" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B149" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D149" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F149" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G149" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H149" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="I149" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A150" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D150" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F150" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G150" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A151" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B151" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D151" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F151" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G151" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A152" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B152" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D152" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F152" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G152" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A153" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B153" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D153" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F153" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G153" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A154" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B154" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D154" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="F154" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="G154" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="H154" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="I154" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A155" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B155" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D155" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E155" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A156" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B156" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D156" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E156" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D157" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E157" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A158" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B158" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D158" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E158" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A159" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B159" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D159" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E159" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H159" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I159" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A160" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B160" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D160" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E160" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D161" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E161" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A162" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B162" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D162" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E162" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A163" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B163" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D163" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E163" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A164" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B164" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D164" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E164" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H164" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="I164" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A165" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B165" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D165" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E165" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A166" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B166" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D166" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E166" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A167" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B167" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D167" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E167" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A168" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D168" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E168" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A169" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B169" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D169" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E169" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A170" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B170" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D170" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E170" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A171" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B171" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D171" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E171" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A172" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B172" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D172" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E172" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A173" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B173" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="D173" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E173" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H173" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="I173" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A174" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B174" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C174" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A175" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B175" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C175" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A176" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B176" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C176" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A177" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B177" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C177" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A178" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B178" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C178" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H178" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="I178" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A179" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B179" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C179" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A180" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C180" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A181" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B181" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C181" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A182" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B182" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C182" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A183" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C183" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H183" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="I183" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A184" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B184" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C184" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A185" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B185" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C185" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A186" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B186" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C186" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B187" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C187" s="9" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A188" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B188" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="C188" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H188" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="I188" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A189" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B189" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C189" s="9" t="s">
-        <v>94</v>
-      </c>
-      <c r="I189" s="10" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A190" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B190" s="9" t="s">
-        <v>127</v>
-      </c>
-      <c r="C190" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="H190" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="I190" s="10" t="s">
-        <v>92</v>
       </c>
     </row>
   </sheetData>
